--- a/src/main/webapp/template/5-plan.xlsx
+++ b/src/main/webapp/template/5-plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>渠道名称</t>
   </si>
@@ -107,12 +107,16 @@
     <t>市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>自有渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,6 +161,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -168,7 +179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,12 +230,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,7 +584,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,38 +601,38 @@
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -638,21 +649,21 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>11</v>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>13754513799</v>
       </c>
     </row>
